--- a/Überzeitkontrolle_Technik.xlsx
+++ b/Überzeitkontrolle_Technik.xlsx
@@ -48,18 +48,12 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">01.01.2019</t>
+    <t xml:space="preserve">16.01.2019</t>
   </si>
   <si>
     <t xml:space="preserve">Onax</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.01.2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.50</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.01.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL</t>
@@ -202,7 +202,7 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f>IF(C3="ok",D3*E3,0)</f>
@@ -220,7 +220,7 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F4">
         <f>IF(C4="ok",D4*E4,0)</f>
@@ -238,7 +238,7 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f>IF(C5="ok",D5*E5,0)</f>
